--- a/1_Planning&Estimations/ProjectProgres .xlsx
+++ b/1_Planning&Estimations/ProjectProgres .xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14780" tabRatio="687" firstSheet="1"/>
+    <workbookView windowHeight="14780" tabRatio="687" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Progress_Stages" sheetId="4" r:id="rId1"/>
     <sheet name="Analysis" sheetId="5" r:id="rId2"/>
-    <sheet name="Planning" sheetId="6" r:id="rId3"/>
+    <sheet name="Planning" sheetId="3" r:id="rId3"/>
     <sheet name="Design" sheetId="7" r:id="rId4"/>
     <sheet name="Development" sheetId="8" r:id="rId5"/>
     <sheet name="Testing &amp; Integration" sheetId="9" r:id="rId6"/>
     <sheet name="Maintaince" sheetId="10" r:id="rId7"/>
-    <sheet name="StockMarket" sheetId="3" r:id="rId8"/>
-    <sheet name="StatusCodes" sheetId="2" r:id="rId9"/>
+    <sheet name="StatusCodes" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="277">
   <si>
     <t>Goal</t>
   </si>
@@ -52,6 +51,9 @@
     <t>Deliverables</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Analysis</t>
   </si>
   <si>
@@ -73,6 +75,9 @@
     <t>Requirement Specification Document (SRS)</t>
   </si>
   <si>
+    <t>Functional and Non-functional Requirments are clear</t>
+  </si>
+  <si>
     <t>Define requirements, scope, and feasibility.</t>
   </si>
   <si>
@@ -94,13 +99,16 @@
     <t>API comparison matrix (cost, latency, features).</t>
   </si>
   <si>
+    <t>Researched and updated in Doc.</t>
+  </si>
+  <si>
     <t>Use Case Definition:</t>
   </si>
   <si>
-    <t>Client: View portfolio, place orders, set alerts.</t>
-  </si>
-  <si>
-    <t>Advisor: Bulk trades, client portfolio analysis.</t>
+    <t>Client: View stock market prices, Track portfolio performances, place orders, set alerts, Generate reports      (FUN req)</t>
+  </si>
+  <si>
+    <t>Advisor: Bulk trades, client portfolio analysis, Generate reports, Annotate trades (e.g., "Tax-Loss Harvesting")       (FUN req)</t>
   </si>
   <si>
     <r>
@@ -114,7 +122,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Identify FINRA/GDPR requirements for trade auditing.</t>
+      <t>: Identify FINRA/GDPR requirements for trade auditing. (N-FUN req)</t>
     </r>
   </si>
   <si>
@@ -129,7 +137,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Assess WebSocket scalability, Kafka for event streaming.</t>
+      <t>: Assess WebSocket scalability, Kafka for event streaming.   (N-FUN req)</t>
     </r>
   </si>
   <si>
@@ -157,29 +165,54 @@
     <t>Create timelines, allocate resources, and define risks.</t>
   </si>
   <si>
-    <t>Backend: Spring Boot (Microservices), Kafka, PostgreSQL.</t>
+    <t>Backend: Spring Boot (Microservices), Kafka, PostgreSQL Mongo DB,  Netflix DGS,
+GraphQL API</t>
+  </si>
+  <si>
+    <t>Frontend: React.ts, Chart.js, AG-Grid. Tanstack Query, Bootstrap</t>
+  </si>
+  <si>
+    <t>Milestone Planning</t>
+  </si>
+  <si>
+    <t>Sprint 1: Auth + Market Data Service.</t>
+  </si>
+  <si>
+    <t>Sprint 2: Order Execution + Portfolio Tracking.</t>
+  </si>
+  <si>
+    <t>Sprint 3: Role-Based Views + Notifications.</t>
+  </si>
+  <si>
+    <r>
+      <t>Risk Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Mitigate API rate limits (cache market data).</t>
   </si>
   <si>
     <t>Risk Assessment Matrix.</t>
   </si>
   <si>
-    <t>Frontend: React.ts, Chart.js, AG-Grid.</t>
-  </si>
-  <si>
-    <t>Milestone Planning</t>
-  </si>
-  <si>
-    <t>Sprint 1: Auth + Market Data Service.</t>
-  </si>
-  <si>
-    <t>Sprint 2: Order Execution + Portfolio Tracking.</t>
-  </si>
-  <si>
-    <t>Sprint 3: Role-Based Views + Notifications.</t>
-  </si>
-  <si>
-    <r>
-      <t>Risk Management</t>
+    <t>Handle trade failures (dead-letter queues in Kafka).</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <r>
+      <t>System Architecture</t>
     </r>
     <r>
       <rPr>
@@ -193,17 +226,26 @@
     </r>
   </si>
   <si>
-    <t>Mitigate API rate limits (cache market data).</t>
-  </si>
-  <si>
-    <t>Handle trade failures (dead-letter queues in Kafka).</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <r>
-      <t>System Architecture</t>
+    <t>Architecture Diagrams (C4, Deployment)</t>
+  </si>
+  <si>
+    <t>Architect the system and design UI/UX.</t>
+  </si>
+  <si>
+    <t>Microservices: Auth, Market Data, Order, Portfolio.</t>
+  </si>
+  <si>
+    <t>UI Mockups (Figma/Adobe XD).</t>
+  </si>
+  <si>
+    <t>Event Flow: WebSocket → Kafka → Order Service → DB.</t>
+  </si>
+  <si>
+    <t>Swagger/OpenAPI Spec.</t>
+  </si>
+  <si>
+    <r>
+      <t>Database Design</t>
     </r>
     <r>
       <rPr>
@@ -217,26 +259,141 @@
     </r>
   </si>
   <si>
-    <t>Architecture Diagrams (C4, Deployment)</t>
-  </si>
-  <si>
-    <t>Architect the system and design UI/UX.</t>
-  </si>
-  <si>
-    <t>Microservices: Auth, Market Data, Order, Portfolio.</t>
-  </si>
-  <si>
-    <t>UI Mockups (Figma/Adobe XD).</t>
-  </si>
-  <si>
-    <t>Event Flow: WebSocket → Kafka → Order Service → DB.</t>
-  </si>
-  <si>
-    <t>Swagger/OpenAPI Spec.</t>
-  </si>
-  <si>
-    <r>
-      <t>Database Design</t>
+    <r>
+      <t>Tables: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="var(--ds-font-family-code)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="var(--ds-font-family-code)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="var(--ds-font-family-code)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Portfolios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="var(--ds-font-family-code)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Market_Data</t>
+    </r>
+  </si>
+  <si>
+    <t>UI Wireframes</t>
+  </si>
+  <si>
+    <t>Dashboard: Stock charts, order form, portfolio summary.</t>
+  </si>
+  <si>
+    <t>Role-Based Views: Advisor sees client lists + bulk actions.</t>
+  </si>
+  <si>
+    <t>API Contracts</t>
+  </si>
+  <si>
+    <r>
+      <t>REST: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="var(--ds-font-family-code)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GET /portfolio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="var(--ds-font-family-code)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>POST /orders</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WebSocket: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="var(--ds-font-family-code)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/topic/prices/{symbol}</t>
+    </r>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <r>
+      <t>Backend</t>
     </r>
     <r>
       <rPr>
@@ -250,141 +407,35 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Tables: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF404040"/>
-        <rFont val="var(--ds-font-family-code)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Users</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF404040"/>
-        <rFont val="var(--ds-font-family-code)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF404040"/>
-        <rFont val="var(--ds-font-family-code)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Portfolios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF404040"/>
-        <rFont val="var(--ds-font-family-code)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Market_Data</t>
-    </r>
-  </si>
-  <si>
-    <t>UI Wireframes</t>
-  </si>
-  <si>
-    <t>Dashboard: Stock charts, order form, portfolio summary.</t>
-  </si>
-  <si>
-    <t>Role-Based Views: Advisor sees client lists + bulk actions.</t>
-  </si>
-  <si>
-    <t>API Contracts</t>
-  </si>
-  <si>
-    <r>
-      <t>REST: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF404040"/>
-        <rFont val="var(--ds-font-family-code)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>GET /portfolio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF404040"/>
-        <rFont val="var(--ds-font-family-code)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>POST /orders</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>WebSocket: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF404040"/>
-        <rFont val="var(--ds-font-family-code)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/topic/prices/{symbol}</t>
-    </r>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <r>
-      <t>Backend</t>
+    <t>Functional Microservices (Git repos).</t>
+  </si>
+  <si>
+    <t>Build and integrate components.</t>
+  </si>
+  <si>
+    <t>Set up Spring Boot microservices (Spring Cloud, Eureka).</t>
+  </si>
+  <si>
+    <t>Implement WebSocket (STOMP) for real-time prices.</t>
+  </si>
+  <si>
+    <t>Kafka producers/consumers for order events.</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>React Dashboard (Vercel/Netlify preview).</t>
+  </si>
+  <si>
+    <t>React.ts app with Redux (state management).</t>
+  </si>
+  <si>
+    <t>Chart.js for P&amp;L trends, AG-Grid for holdings.</t>
+  </si>
+  <si>
+    <r>
+      <t>Integrations</t>
     </r>
     <r>
       <rPr>
@@ -398,35 +449,17 @@
     </r>
   </si>
   <si>
-    <t>Functional Microservices (Git repos).</t>
-  </si>
-  <si>
-    <t>Build and integrate components.</t>
-  </si>
-  <si>
-    <t>Set up Spring Boot microservices (Spring Cloud, Eureka).</t>
-  </si>
-  <si>
-    <t>Implement WebSocket (STOMP) for real-time prices.</t>
-  </si>
-  <si>
-    <t>Kafka producers/consumers for order events.</t>
-  </si>
-  <si>
-    <t>Frontend</t>
-  </si>
-  <si>
-    <t>React Dashboard (Vercel/Netlify preview).</t>
-  </si>
-  <si>
-    <t>React.ts app with Redux (state management).</t>
-  </si>
-  <si>
-    <t>Chart.js for P&amp;L trends, AG-Grid for holdings.</t>
-  </si>
-  <si>
-    <r>
-      <t>Integrations</t>
+    <t>Mock Stock Market API (for testing).</t>
+  </si>
+  <si>
+    <t>Auth0/Keycloak for JWT-based roles.</t>
+  </si>
+  <si>
+    <t>Testing &amp; Integration</t>
+  </si>
+  <si>
+    <r>
+      <t>Unit Tests</t>
     </r>
     <r>
       <rPr>
@@ -440,17 +473,20 @@
     </r>
   </si>
   <si>
-    <t>Mock Stock Market API (for testing).</t>
-  </si>
-  <si>
-    <t>Auth0/Keycloak for JWT-based roles.</t>
-  </si>
-  <si>
-    <t>Testing &amp; Integration</t>
-  </si>
-  <si>
-    <r>
-      <t>Unit Tests</t>
+    <t>Test Reports (JUnit, Postman).</t>
+  </si>
+  <si>
+    <t>Ensure reliability, performance, and security.</t>
+  </si>
+  <si>
+    <t>Spring Boot: MockMVC for APIs, Kafka test containers.</t>
+  </si>
+  <si>
+    <t>React: Jest + Testing Library.</t>
+  </si>
+  <si>
+    <r>
+      <t>Integration Tests</t>
     </r>
     <r>
       <rPr>
@@ -464,20 +500,11 @@
     </r>
   </si>
   <si>
-    <t>Test Reports (JUnit, Postman).</t>
-  </si>
-  <si>
-    <t>Ensure reliability, performance, and security.</t>
-  </si>
-  <si>
-    <t>Spring Boot: MockMVC for APIs, Kafka test containers.</t>
-  </si>
-  <si>
-    <t>React: Jest + Testing Library.</t>
-  </si>
-  <si>
-    <r>
-      <t>Integration Tests</t>
+    <t>Validate order flow: Frontend → Kafka → DB.</t>
+  </si>
+  <si>
+    <r>
+      <t>Performance Tests</t>
     </r>
     <r>
       <rPr>
@@ -491,11 +518,14 @@
     </r>
   </si>
   <si>
-    <t>Validate order flow: Frontend → Kafka → DB.</t>
-  </si>
-  <si>
-    <r>
-      <t>Performance Tests</t>
+    <t>Performance Metrics (Gatling reports).</t>
+  </si>
+  <si>
+    <t>Load test WebSocket (10K concurrent users).</t>
+  </si>
+  <si>
+    <r>
+      <t>Security Tests</t>
     </r>
     <r>
       <rPr>
@@ -509,14 +539,62 @@
     </r>
   </si>
   <si>
-    <t>Performance Metrics (Gatling reports).</t>
-  </si>
-  <si>
-    <t>Load test WebSocket (10K concurrent users).</t>
-  </si>
-  <si>
-    <r>
-      <t>Security Tests</t>
+    <t>OWASP ZAP for vulnerabilities (e.g., SQLi, XSS).</t>
+  </si>
+  <si>
+    <t>Role-based access checks.</t>
+  </si>
+  <si>
+    <t>Maintaince</t>
+  </si>
+  <si>
+    <t>Alerts</t>
+  </si>
+  <si>
+    <t>Monitor, optimize, and scale.</t>
+  </si>
+  <si>
+    <r>
+      <t>Bug Fixes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Prioritize based on user feedback (e.g., trade failures).</t>
+    </r>
+  </si>
+  <si>
+    <t>Incident Reports (JIRA/ServiceNow).</t>
+  </si>
+  <si>
+    <t>Enhancements</t>
+  </si>
+  <si>
+    <t>Add new chart types (e.g., candlestick).</t>
+  </si>
+  <si>
+    <t>Quarterly Release Plans.</t>
+  </si>
+  <si>
+    <t>Integrate real brokerage APIs (e.g., Alpaca).</t>
+  </si>
+  <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>Kubernetes for microservices.</t>
+  </si>
+  <si>
+    <t>Redis cache for market data.</t>
+  </si>
+  <si>
+    <r>
+      <t>Compliance Updates</t>
     </r>
     <r>
       <rPr>
@@ -530,62 +608,38 @@
     </r>
   </si>
   <si>
-    <t>OWASP ZAP for vulnerabilities (e.g., SQLi, XSS).</t>
-  </si>
-  <si>
-    <t>Role-based access checks.</t>
-  </si>
-  <si>
-    <t>Maintaince</t>
-  </si>
-  <si>
-    <t>Alerts</t>
-  </si>
-  <si>
-    <t>Monitor, optimize, and scale.</t>
-  </si>
-  <si>
-    <r>
-      <t>Bug Fixes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Prioritize based on user feedback (e.g., trade failures).</t>
-    </r>
-  </si>
-  <si>
-    <t>Incident Reports (JIRA/ServiceNow).</t>
-  </si>
-  <si>
-    <t>Enhancements</t>
-  </si>
-  <si>
-    <t>Add new chart types (e.g., candlestick).</t>
-  </si>
-  <si>
-    <t>Quarterly Release Plans.</t>
-  </si>
-  <si>
-    <t>Integrate real brokerage APIs (e.g., Alpaca).</t>
-  </si>
-  <si>
-    <t>Scaling</t>
-  </si>
-  <si>
-    <t>Kubernetes for microservices.</t>
-  </si>
-  <si>
-    <t>Redis cache for market data.</t>
-  </si>
-  <si>
-    <r>
-      <t>Compliance Updates</t>
+    <t>Audit log retention policies.</t>
+  </si>
+  <si>
+    <t>Stock Market API Comparison (2025)</t>
+  </si>
+  <si>
+    <t>Summery:</t>
+  </si>
+  <si>
+    <t>Key Decision Factors</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Pricing (Free Tier)</t>
+  </si>
+  <si>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>Key Features</t>
+  </si>
+  <si>
+    <t>Limitations</t>
+  </si>
+  <si>
+    <t>Best For</t>
+  </si>
+  <si>
+    <r>
+      <t>Real-Time Needs</t>
     </r>
     <r>
       <rPr>
@@ -599,10 +653,735 @@
     </r>
   </si>
   <si>
-    <t>Audit log retention policies.</t>
-  </si>
-  <si>
-    <t>## Wealth-Management-Platform tools and technologies</t>
+    <r>
+      <t>Polygon.io</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(best latency) &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IEX Cloud</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Twelve Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Alpha Vantage</t>
+  </si>
+  <si>
+    <t>Free: 25 req/day</t>
+  </si>
+  <si>
+    <t>500ms-1s</t>
+  </si>
+  <si>
+    <t>- Global equities, forex, crypto</t>
+  </si>
+  <si>
+    <t>Free tier very limited</t>
+  </si>
+  <si>
+    <t>Backtesting, research</t>
+  </si>
+  <si>
+    <t>Avoid Alpha Vantage for real-time (delayed by 5-15 mins in free tier).</t>
+  </si>
+  <si>
+    <t>Paid: $49+/month</t>
+  </si>
+  <si>
+    <t>- Historical + real-time (delayed)</t>
+  </si>
+  <si>
+    <t>No true real-time</t>
+  </si>
+  <si>
+    <r>
+      <t>Global Coverage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Twelve Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Finnhub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(supports forex/crypto).</t>
+    </r>
+  </si>
+  <si>
+    <t>- Technical indicators (SMA, RSI)</t>
+  </si>
+  <si>
+    <r>
+      <t>Cost vs. Features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Free Tier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: IEX Cloud (50k msg/month) &gt; Finnhub (60 req/min).</t>
+    </r>
+  </si>
+  <si>
+    <t>IEX Cloud</t>
+  </si>
+  <si>
+    <t>Free: 50k msg/month</t>
+  </si>
+  <si>
+    <t>100-300ms</t>
+  </si>
+  <si>
+    <t>- Real-time US stocks (IEX exchange)</t>
+  </si>
+  <si>
+    <t>Limited global coverage</t>
+  </si>
+  <si>
+    <t>US-focused trading apps</t>
+  </si>
+  <si>
+    <r>
+      <t>Paid Tier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Polygon.io for HFT, Twelve Data for affordability.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Paid: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>999/month</t>
+    </r>
+  </si>
+  <si>
+    <t>- Fundamental data (EPS, dividends)</t>
+  </si>
+  <si>
+    <t>No forex/crypto</t>
+  </si>
+  <si>
+    <r>
+      <t>Advanced Features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Polygon.io</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tick-level order book data.</t>
+    </r>
+  </si>
+  <si>
+    <t>- WebSocket support</t>
+  </si>
+  <si>
+    <r>
+      <t>Finnhub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: News sentiment + fundamentals.</t>
+    </r>
+  </si>
+  <si>
+    <t>Polygon.io</t>
+  </si>
+  <si>
+    <t>Free: None</t>
+  </si>
+  <si>
+    <t>&lt;100ms (WebSocket)</t>
+  </si>
+  <si>
+    <t>- Ultra-low latency US stocks/options</t>
+  </si>
+  <si>
+    <t>Expensive for small projects</t>
+  </si>
+  <si>
+    <t>High-frequency trading (HFT)</t>
+  </si>
+  <si>
+    <r>
+      <t>Paid: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>999/month</t>
+    </r>
+  </si>
+  <si>
+    <t>- Real-time + historical tick data</t>
+  </si>
+  <si>
+    <t>Complex API</t>
+  </si>
+  <si>
+    <t>KEY TAKES</t>
+  </si>
+  <si>
+    <r>
+      <t>For Local Development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IEX Cloud</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (free WebSocket + low latency).</t>
+    </r>
+  </si>
+  <si>
+    <t>- Institutional-grade</t>
+  </si>
+  <si>
+    <r>
+      <t>For Production</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Switch to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Polygon.io</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if scaling to high-frequency trades.</t>
+    </r>
+  </si>
+  <si>
+    <t>Twelve Data</t>
+  </si>
+  <si>
+    <t>Free: 8 req/day</t>
+  </si>
+  <si>
+    <t>300-700ms</t>
+  </si>
+  <si>
+    <t>- Global stocks, forex, crypto</t>
+  </si>
+  <si>
+    <t>Free tier restrictive</t>
+  </si>
+  <si>
+    <t>Multi-asset dashboards</t>
+  </si>
+  <si>
+    <r>
+      <t>For Global Markets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Twelve Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Finnhub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Paid: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>99/month</t>
+    </r>
+  </si>
+  <si>
+    <t>- Real-time + WebSocket</t>
+  </si>
+  <si>
+    <t>Fewer indicators</t>
+  </si>
+  <si>
+    <t>- Simple REST API</t>
+  </si>
+  <si>
+    <t>Finnhub</t>
+  </si>
+  <si>
+    <t>Free: 60 req/minute</t>
+  </si>
+  <si>
+    <t>200-500ms</t>
+  </si>
+  <si>
+    <t>No WebSocket in free tier</t>
+  </si>
+  <si>
+    <t>AI-driven stock analysis</t>
+  </si>
+  <si>
+    <r>
+      <t>Paid: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500/month</t>
+    </r>
+  </si>
+  <si>
+    <t>- News sentiment analysis</t>
+  </si>
+  <si>
+    <t>Rate limits</t>
+  </si>
+  <si>
+    <t>- Earnings calendar</t>
+  </si>
+  <si>
+    <t>## Realtime-invest-bank-trading-and-dashboard tools and technologies</t>
   </si>
   <si>
     <t>Objective</t>
@@ -611,10 +1390,10 @@
     <t>Tools</t>
   </si>
   <si>
-    <t>Service/component</t>
-  </si>
-  <si>
-    <t>URL</t>
+    <t>Service/component name</t>
+  </si>
+  <si>
+    <t>Accessing URL</t>
   </si>
   <si>
     <t>port</t>
@@ -629,31 +1408,16 @@
     <t>Technologies</t>
   </si>
   <si>
-    <t>Docker Start</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
     <t>Postgres</t>
   </si>
   <si>
-    <t>http://localhost:5432/postgres</t>
-  </si>
-  <si>
-    <t>postgres</t>
-  </si>
-  <si>
-    <t>wealth-mgt</t>
-  </si>
-  <si>
     <t>NoSQL</t>
   </si>
   <si>
-    <t>MongoDV</t>
-  </si>
-  <si>
-    <t>docker run -d -p 27017:27017 --name mongodb mongo</t>
+    <t>MongoDB</t>
   </si>
   <si>
     <t>Security</t>
@@ -662,9 +1426,6 @@
     <t>keycloak</t>
   </si>
   <si>
-    <t>http://localhost:8080</t>
-  </si>
-  <si>
     <t>Monitoring</t>
   </si>
   <si>
@@ -683,9 +1444,6 @@
     <t>Zipkin</t>
   </si>
   <si>
-    <t>http://localhost:9411</t>
-  </si>
-  <si>
     <t>CI/CD</t>
   </si>
   <si>
@@ -708,12 +1466,6 @@
   </si>
   <si>
     <t>SonarQube</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Wealthadmin1@</t>
   </si>
   <si>
     <t>Secrets</t>
@@ -831,18 +1583,10 @@
     <t>jpm-notification-service</t>
   </si>
   <si>
-    <t xml:space="preserve">Singleton Pattern
-</t>
-  </si>
-  <si>
     <t>jpm-investment-service</t>
   </si>
   <si>
     <t>jpm-education-service</t>
-  </si>
-  <si>
-    <t>Factory Pattern
-AOP- proxy pattern acheived by beans</t>
   </si>
   <si>
     <t>jpm-client-service</t>
@@ -1172,7 +1916,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,6 +1940,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF292929"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1260,8 +2011,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="14.05"/>
+      <color rgb="FF404040"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1417,6 +2169,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14.5"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF404040"/>
       <name val="var(--ds-font-family-code)"/>
@@ -1429,7 +2188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1451,6 +2210,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,7 +2412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1730,15 +2501,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1874,76 +2636,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1952,10 +2708,10 @@
     <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1964,10 +2720,10 @@
     <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1976,10 +2732,10 @@
     <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1988,10 +2744,10 @@
     <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2000,11 +2756,17 @@
     <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2029,104 +2791,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2135,40 +2891,82 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2695,494 +3493,504 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D61"/>
+  <dimension ref="B2:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="18.5625" customWidth="1"/>
-    <col min="3" max="3" width="73.5" customWidth="1"/>
+    <col min="3" max="3" width="78" customWidth="1"/>
     <col min="4" max="4" width="41.7890625" customWidth="1"/>
+    <col min="5" max="5" width="46.4375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="23.2" spans="2:4">
-      <c r="B2" s="44" t="s">
+    <row r="2" ht="48" customHeight="1" spans="2:4">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="45"/>
-    </row>
-    <row r="3" ht="17.6" spans="2:4">
-      <c r="B3" s="44" t="s">
+      <c r="D2" s="56"/>
+    </row>
+    <row r="3" ht="17.6" spans="2:5">
+      <c r="B3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="55" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" ht="18" spans="2:4">
-      <c r="B4" s="43" t="s">
+      <c r="E3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46" t="s">
+    </row>
+    <row r="4" ht="18" spans="2:5">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="57" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" ht="24" customHeight="1" spans="2:4">
-      <c r="B5" s="48" t="s">
+      <c r="D4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="E4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="47" t="s">
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="2:5">
+      <c r="B5" s="59" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" ht="17.6" spans="2:4">
-      <c r="B6" s="49"/>
-      <c r="C6" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="47"/>
-    </row>
-    <row r="7" ht="18" spans="2:4">
-      <c r="B7" s="49"/>
-      <c r="C7" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="47"/>
-    </row>
-    <row r="8" ht="18" spans="2:4">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="47"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="58"/>
+    </row>
+    <row r="7" ht="36" spans="2:4">
+      <c r="B7" s="60"/>
+      <c r="C7" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="58"/>
+    </row>
+    <row r="8" ht="36" spans="2:4">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" ht="18" spans="2:4">
-      <c r="B9" s="49"/>
-      <c r="C9" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="47"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" ht="18" spans="2:4">
-      <c r="B10" s="49"/>
-      <c r="C10" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="47"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="58"/>
     </row>
     <row r="11" ht="18" spans="2:4">
-      <c r="B11" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="18" spans="2:4">
-      <c r="B12" s="48" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D11" s="58" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="12" ht="36" spans="2:4">
+      <c r="B12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="58"/>
+    </row>
     <row r="13" ht="18" spans="2:4">
-      <c r="B13" s="48"/>
-      <c r="C13" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="47"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="58"/>
     </row>
     <row r="14" ht="17.6" spans="2:4">
-      <c r="B14" s="48"/>
-      <c r="C14" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="47"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" ht="18" spans="2:4">
-      <c r="B15" s="48"/>
-      <c r="C15" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="47"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" ht="18" spans="2:4">
-      <c r="B16" s="48"/>
-      <c r="C16" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="47"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" ht="18" spans="2:4">
-      <c r="B17" s="48"/>
-      <c r="C17" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="47"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" ht="18" spans="2:4">
-      <c r="B18" s="48"/>
-      <c r="C18" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="47"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="58"/>
     </row>
     <row r="19" ht="18" spans="2:4">
-      <c r="B19" s="48"/>
-      <c r="C19" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="47"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" ht="18" spans="2:4">
-      <c r="B20" s="48"/>
-      <c r="C20" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="47"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="58"/>
     </row>
     <row r="21" ht="18" spans="2:4">
-      <c r="B21" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>32</v>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="18" spans="2:4">
-      <c r="B22" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>35</v>
+      <c r="B22" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="18" spans="2:4">
-      <c r="B23" s="48"/>
-      <c r="C23" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>37</v>
+      <c r="B23" s="59"/>
+      <c r="C23" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="18" spans="2:4">
-      <c r="B24" s="48"/>
-      <c r="C24" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="47"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" ht="18" spans="2:4">
-      <c r="B25" s="48"/>
-      <c r="C25" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="47"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="58"/>
     </row>
     <row r="26" ht="17.6" spans="2:4">
-      <c r="B26" s="48"/>
-      <c r="C26" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="47"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" ht="18" spans="2:4">
-      <c r="B27" s="48"/>
-      <c r="C27" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="47"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="58"/>
     </row>
     <row r="28" ht="18" spans="2:4">
-      <c r="B28" s="48"/>
-      <c r="C28" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="47"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="58"/>
     </row>
     <row r="29" ht="17.6" spans="2:4">
-      <c r="B29" s="48"/>
-      <c r="C29" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="47"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="58"/>
     </row>
     <row r="30" ht="18" spans="2:4">
-      <c r="B30" s="48"/>
-      <c r="C30" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="47"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" ht="18" spans="2:4">
-      <c r="B31" s="48"/>
-      <c r="C31" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="47"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="58"/>
     </row>
     <row r="32" ht="18" spans="2:4">
-      <c r="B32" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>48</v>
+      <c r="B32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" ht="18" spans="2:4">
-      <c r="B33" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="47"/>
+      <c r="B33" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="58"/>
     </row>
     <row r="34" ht="18" spans="2:4">
-      <c r="B34" s="53"/>
-      <c r="C34" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="47"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="58"/>
     </row>
     <row r="35" ht="18" spans="2:4">
-      <c r="B35" s="53"/>
-      <c r="C35" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="47"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="58"/>
     </row>
     <row r="36" ht="17.6" spans="2:4">
-      <c r="B36" s="53"/>
-      <c r="C36" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>54</v>
+      <c r="B36" s="65"/>
+      <c r="C36" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" ht="18" spans="2:4">
-      <c r="B37" s="53"/>
-      <c r="C37" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="47"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="58"/>
     </row>
     <row r="38" ht="18" spans="2:4">
-      <c r="B38" s="53"/>
-      <c r="C38" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="47"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="58"/>
     </row>
     <row r="39" ht="18" spans="2:4">
-      <c r="B39" s="53"/>
-      <c r="C39" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="47"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="58"/>
     </row>
     <row r="40" ht="18" spans="2:4">
-      <c r="B40" s="53"/>
-      <c r="C40" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="47"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="58"/>
     </row>
     <row r="41" ht="18" spans="2:4">
-      <c r="B41" s="53"/>
-      <c r="C41" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="47"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="58"/>
     </row>
     <row r="42" ht="18" spans="2:4">
-      <c r="B42" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>62</v>
+      <c r="B42" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="58" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="43" ht="18" spans="2:4">
-      <c r="B43" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="47"/>
+      <c r="B43" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="58"/>
     </row>
     <row r="44" ht="18" spans="2:4">
-      <c r="B44" s="53"/>
-      <c r="C44" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="47"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="58"/>
     </row>
     <row r="45" ht="18" spans="2:4">
-      <c r="B45" s="53"/>
-      <c r="C45" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="47"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="58"/>
     </row>
     <row r="46" ht="18" spans="2:4">
-      <c r="B46" s="53"/>
-      <c r="C46" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="47"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="58"/>
     </row>
     <row r="47" ht="18" spans="2:4">
-      <c r="B47" s="53"/>
-      <c r="C47" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>69</v>
+      <c r="B47" s="65"/>
+      <c r="C47" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="58" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48" ht="18" spans="2:4">
-      <c r="B48" s="53"/>
-      <c r="C48" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="47"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="58"/>
     </row>
     <row r="49" ht="18" spans="2:4">
-      <c r="B49" s="53"/>
-      <c r="C49" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="47"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="58"/>
     </row>
     <row r="50" ht="18" spans="2:4">
-      <c r="B50" s="53"/>
-      <c r="C50" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="47"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="58"/>
     </row>
     <row r="51" ht="18" spans="2:4">
-      <c r="B51" s="53"/>
-      <c r="C51" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="47"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="58"/>
     </row>
     <row r="52" ht="17.6" spans="2:4">
-      <c r="B52" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="47"/>
+      <c r="B52" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="58"/>
     </row>
     <row r="53" ht="18" spans="2:4">
-      <c r="B53" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>78</v>
+      <c r="B53" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="58" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="54" ht="17.6" spans="2:4">
-      <c r="B54" s="53"/>
-      <c r="C54" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="47"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="58"/>
     </row>
     <row r="55" ht="18" spans="2:4">
-      <c r="B55" s="53"/>
-      <c r="C55" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>81</v>
+      <c r="B55" s="65"/>
+      <c r="C55" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="56" ht="18" spans="2:4">
-      <c r="B56" s="53"/>
-      <c r="C56" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="47"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="58"/>
     </row>
     <row r="57" ht="17.6" spans="2:4">
-      <c r="B57" s="53"/>
-      <c r="C57" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="47"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="58"/>
     </row>
     <row r="58" ht="18" spans="2:4">
-      <c r="B58" s="53"/>
-      <c r="C58" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="47"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="58"/>
     </row>
     <row r="59" ht="18" spans="2:4">
-      <c r="B59" s="53"/>
-      <c r="C59" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="47"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="58"/>
     </row>
     <row r="60" ht="18" spans="2:4">
-      <c r="B60" s="53"/>
-      <c r="C60" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="47"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="58"/>
     </row>
     <row r="61" ht="18" spans="2:4">
-      <c r="B61" s="53"/>
-      <c r="C61" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D61" s="47"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3202,14 +4010,352 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.1953125" customWidth="1"/>
+    <col min="5" max="5" width="16.40625" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="17.71875" customWidth="1"/>
+    <col min="10" max="10" width="55.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="21" customHeight="1" spans="2:10">
+      <c r="B2" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" ht="36" spans="2:10">
+      <c r="B3" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" ht="53" spans="2:10">
+      <c r="B4" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" ht="36" spans="2:10">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="46"/>
+      <c r="I5" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" ht="53" spans="2:10">
+      <c r="B6" s="45"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="46"/>
+      <c r="I6" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" ht="53" spans="2:10">
+      <c r="B7" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" ht="53" spans="2:10">
+      <c r="B8" s="45"/>
+      <c r="C8" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="I8" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" ht="36" spans="2:10">
+      <c r="B9" s="45"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="46"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" ht="71" spans="2:7">
+      <c r="B10" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" ht="60" spans="2:10">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="I11" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" ht="36" spans="2:10">
+      <c r="B12" s="45"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="46"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" ht="36" spans="2:10">
+      <c r="B13" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" ht="71" customHeight="1" spans="2:7">
+      <c r="B14" s="45"/>
+      <c r="C14" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" ht="36" spans="2:7">
+      <c r="B15" s="45"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" ht="71" spans="2:7">
+      <c r="B16" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" ht="77" spans="2:7">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" ht="53" spans="2:7">
+      <c r="B18" s="45"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I11:I13"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3218,21 +4364,759 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:W77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="2" max="2" width="15.2890625" customWidth="1"/>
+    <col min="3" max="3" width="18.390625" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="26.9375" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="15.234375" customWidth="1"/>
+    <col min="10" max="10" width="21.8671875" customWidth="1"/>
+    <col min="15" max="15" width="12.859375" customWidth="1"/>
+    <col min="16" max="16" width="16.390625" customWidth="1"/>
+    <col min="17" max="17" width="18.8125" customWidth="1"/>
+    <col min="19" max="19" width="3.6953125" customWidth="1"/>
+    <col min="20" max="20" width="14.9453125" customWidth="1"/>
+    <col min="22" max="22" width="11.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>16</v>
+    <row r="2" ht="20.4" spans="2:9">
+      <c r="B2" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" ht="47" spans="2:9">
+      <c r="B17" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" ht="101" spans="2:9">
+      <c r="B18" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" s="14">
+        <v>8060</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" ht="17" spans="2:9">
+      <c r="B19" s="19"/>
+      <c r="C19" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="14">
+        <v>8761</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" ht="51" spans="2:9">
+      <c r="B20" s="19"/>
+      <c r="C20" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="14">
+        <v>8088</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" ht="17" spans="2:9">
+      <c r="B21" s="12"/>
+      <c r="C21" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" ht="68" spans="2:23">
+      <c r="B23" s="12"/>
+      <c r="C23" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="14">
+        <v>8082</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" s="32"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+    </row>
+    <row r="24" ht="17.6" spans="2:23">
+      <c r="B24" s="12"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="32"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="36"/>
+    </row>
+    <row r="25" ht="17.6" spans="2:23">
+      <c r="B25" s="12"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="32"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+    </row>
+    <row r="26" ht="17.6" spans="2:23">
+      <c r="B26" s="12"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="32"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+    </row>
+    <row r="27" ht="17.6" spans="2:23">
+      <c r="B27" s="12"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="32"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+    </row>
+    <row r="28" ht="17.6" spans="2:23">
+      <c r="B28" s="19"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="32"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="12"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="32"/>
+    </row>
+    <row r="30" ht="34" spans="2:10">
+      <c r="B30" s="19"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="14">
+        <v>8081</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="J30" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" ht="51" spans="2:9">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" ht="34" spans="2:9">
+      <c r="B33" s="12"/>
+      <c r="C33" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" ht="36" spans="7:9">
+      <c r="G72" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="I72" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" ht="36" spans="7:9">
+      <c r="G73" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="H73" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="I73" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" ht="36" spans="7:9">
+      <c r="G74" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="I74" s="40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" ht="88" spans="7:9">
+      <c r="G75" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="H75" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="I75" s="42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" ht="36" spans="7:9">
+      <c r="G76" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="H76" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="I76" s="40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" ht="36" spans="7:9">
+      <c r="G77" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="H77" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="I77" s="42" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J12:T12"/>
+    <mergeCell ref="J13:T13"/>
+    <mergeCell ref="J14:T14"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C23:C30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E31" r:id="rId1" display="http://localhost:3000"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3297,8 +5181,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" ht="17.6" spans="1:1">
-      <c r="A1" s="43" t="s">
-        <v>74</v>
+      <c r="A1" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3308,806 +5192,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:W77"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <cols>
-    <col min="2" max="2" width="15.2890625" customWidth="1"/>
-    <col min="3" max="3" width="18.390625" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="5" width="26.9375" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="15.234375" customWidth="1"/>
-    <col min="10" max="10" width="21.8671875" customWidth="1"/>
-    <col min="15" max="15" width="12.859375" customWidth="1"/>
-    <col min="16" max="16" width="16.390625" customWidth="1"/>
-    <col min="17" max="17" width="18.8125" customWidth="1"/>
-    <col min="19" max="19" width="3.6953125" customWidth="1"/>
-    <col min="20" max="20" width="14.9453125" customWidth="1"/>
-    <col min="22" max="22" width="11.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="20.4" spans="2:9">
-      <c r="B2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="2:20">
-      <c r="B3" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-    </row>
-    <row r="4" spans="2:20">
-      <c r="B4" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="13">
-        <v>5432</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-    </row>
-    <row r="5" spans="2:20">
-      <c r="B5" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-    </row>
-    <row r="6" spans="2:20">
-      <c r="B6" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="13">
-        <v>8080</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-    </row>
-    <row r="7" spans="2:20">
-      <c r="B7" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-    </row>
-    <row r="8" spans="2:20">
-      <c r="B8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-    </row>
-    <row r="9" spans="2:20">
-      <c r="B9" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="13">
-        <v>9411</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-    </row>
-    <row r="10" spans="2:20">
-      <c r="B10" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-    </row>
-    <row r="11" spans="2:20">
-      <c r="B11" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-    </row>
-    <row r="12" spans="2:20">
-      <c r="B12" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-    </row>
-    <row r="13" spans="2:20">
-      <c r="B13" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-    </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13">
-        <v>9000</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-    </row>
-    <row r="15" spans="2:20">
-      <c r="B15" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" ht="47" spans="2:9">
-      <c r="B17" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" ht="101" spans="2:9">
-      <c r="B18" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="13">
-        <v>8060</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" ht="17" spans="2:9">
-      <c r="B19" s="18"/>
-      <c r="C19" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="13">
-        <v>8761</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" ht="51" spans="2:9">
-      <c r="B20" s="18"/>
-      <c r="C20" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="13">
-        <v>8088</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" ht="17" spans="2:9">
-      <c r="B21" s="11"/>
-      <c r="C21" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="32"/>
-    </row>
-    <row r="23" ht="68" spans="2:23">
-      <c r="B23" s="11"/>
-      <c r="C23" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="13">
-        <v>8082</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-    </row>
-    <row r="24" ht="17.6" spans="2:23">
-      <c r="B24" s="11"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="32"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="36"/>
-    </row>
-    <row r="25" ht="17.6" spans="2:23">
-      <c r="B25" s="11"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="32"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-    </row>
-    <row r="26" ht="17.6" spans="2:23">
-      <c r="B26" s="11"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="32"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-    </row>
-    <row r="27" ht="17.6" spans="2:23">
-      <c r="B27" s="11"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="32"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-    </row>
-    <row r="28" ht="34" spans="2:23">
-      <c r="B28" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="32"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="11"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="32"/>
-    </row>
-    <row r="30" ht="68" spans="2:9">
-      <c r="B30" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" s="13">
-        <v>8081</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" ht="51" spans="2:9">
-      <c r="B31" s="11"/>
-      <c r="C31" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" ht="34" spans="2:9">
-      <c r="B33" s="11"/>
-      <c r="C33" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" ht="36" spans="7:9">
-      <c r="G72" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="H72" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="I72" s="38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" ht="36" spans="7:9">
-      <c r="G73" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="H73" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="I73" s="42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="74" ht="36" spans="7:9">
-      <c r="G74" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="H74" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="I74" s="40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="75" ht="88" spans="7:9">
-      <c r="G75" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="H75" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I75" s="42" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="76" ht="36" spans="7:9">
-      <c r="G76" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="H76" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="I76" s="40" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" ht="36" spans="7:9">
-      <c r="G77" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="H77" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I77" s="42" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J3:T3"/>
-    <mergeCell ref="J4:T4"/>
-    <mergeCell ref="J5:T5"/>
-    <mergeCell ref="J6:T6"/>
-    <mergeCell ref="J7:T7"/>
-    <mergeCell ref="J8:T8"/>
-    <mergeCell ref="J9:T9"/>
-    <mergeCell ref="J10:T10"/>
-    <mergeCell ref="J11:T11"/>
-    <mergeCell ref="J12:T12"/>
-    <mergeCell ref="J13:T13"/>
-    <mergeCell ref="J14:T14"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C23:C30"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="http://localhost:5432/postgres"/>
-    <hyperlink ref="E31" r:id="rId2" display="http://localhost:3000"/>
-    <hyperlink ref="E9" r:id="rId3" display="http://localhost:9411"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:L13"/>
@@ -4127,64 +5211,64 @@
   <sheetData>
     <row r="1" ht="20.4" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" ht="68" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" ht="135" spans="2:4">
       <c r="B3" s="3" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" ht="68" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" ht="168" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" ht="168" spans="2:12">
       <c r="B6" s="3" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
@@ -4192,13 +5276,13 @@
     </row>
     <row r="7" ht="51" spans="2:12">
       <c r="B7" s="3" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
@@ -4206,13 +5290,13 @@
     </row>
     <row r="8" ht="101" spans="2:12">
       <c r="B8" s="3" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -4220,7 +5304,7 @@
     </row>
     <row r="9" ht="28" spans="2:12">
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
